--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NCC36-CLAVO HUMERO TITANIO  # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NCC36-CLAVO HUMERO TITANIO  # 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF19E6-C2B8-40A4-9555-7898B08673CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7A1B3A7A-44AF-448A-B8E6-AB86BBDE3291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="180" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="3" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -706,9 +695,6 @@
     <t>TJD1204181200</t>
   </si>
   <si>
-    <t>230005772</t>
-  </si>
-  <si>
     <t xml:space="preserve">0707.202.001XN </t>
   </si>
   <si>
@@ -734,6 +720,9 @@
   </si>
   <si>
     <t>IVA 15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300005772 </t>
   </si>
 </sst>
 </file>
@@ -741,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1246,12 +1235,12 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1327,7 +1316,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1412,7 +1401,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1545,6 +1534,18 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1580,18 +1581,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1667,9 +1656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1707,7 +1696,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1813,7 +1802,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1955,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1965,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1994,19 +1983,19 @@
       <c r="A2" s="83"/>
       <c r="B2" s="118"/>
       <c r="C2" s="72"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="129"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84"/>
       <c r="B3" s="119"/>
       <c r="C3" s="73"/>
-      <c r="D3" s="127"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="74" t="s">
         <v>117</v>
       </c>
@@ -2016,23 +2005,23 @@
       <c r="A4" s="84"/>
       <c r="B4" s="119"/>
       <c r="C4" s="73"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="133"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="85"/>
       <c r="B5" s="120"/>
       <c r="C5" s="76"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="134" t="s">
+      <c r="D5" s="135"/>
+      <c r="E5" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="139"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
@@ -2097,11 +2086,11 @@
       <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="7" t="s">
         <v>121</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>12</v>
@@ -2362,7 +2351,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>40</v>
@@ -2386,7 +2375,7 @@
         <v>149</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>41</v>
@@ -2537,7 +2526,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>187</v>
@@ -2767,7 +2756,7 @@
         <v>89</v>
       </c>
       <c r="E46" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="61">
@@ -2928,7 +2917,7 @@
       <c r="D53" s="115"/>
       <c r="E53" s="67">
         <f>SUM(E46:E52)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="61"/>
@@ -2963,10 +2952,10 @@
         <v>162</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>88</v>
@@ -2990,7 +2979,7 @@
         <v>163</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56" s="65" t="s">
         <v>90</v>
@@ -3086,7 +3075,7 @@
         <v>166</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="65" t="s">
         <v>96</v>
@@ -3180,7 +3169,7 @@
       </c>
       <c r="B64" s="122"/>
       <c r="C64" s="123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="58" t="s">
         <v>102</v>
@@ -3215,10 +3204,10 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="31"/>
-      <c r="G66" s="137" t="s">
+      <c r="G66" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="138">
+      <c r="H66" s="126">
         <f>SUM(H15:H63)</f>
         <v>19499.680000000004</v>
       </c>
@@ -3229,10 +3218,10 @@
       <c r="C67" s="62"/>
       <c r="D67" s="63"/>
       <c r="E67" s="28"/>
-      <c r="G67" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="H67" s="139">
+      <c r="G67" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="127">
         <f>+H66*0.15</f>
         <v>2924.9520000000007</v>
       </c>
@@ -3243,10 +3232,10 @@
       <c r="C68" s="62"/>
       <c r="D68" s="63"/>
       <c r="E68" s="28"/>
-      <c r="G68" s="136" t="s">
+      <c r="G68" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="139">
+      <c r="H68" s="127">
         <f>+H66+H67</f>
         <v>22424.632000000005</v>
       </c>
